--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D0579D-A272-46A9-9B19-F8A5CDFCE87F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD56B274-F8AC-4971-8725-4F0CE1A9ED5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
+    <workbookView xWindow="26640" yWindow="-3504" windowWidth="17280" windowHeight="8964" firstSheet="3" activeTab="4" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-5101 Web App Dev" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>lecture + lab</t>
+  </si>
+  <si>
+    <t>team meeting #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">synchronous meeting </t>
   </si>
 </sst>
 </file>
@@ -586,7 +592,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,8 +690,15 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="6">
+        <v>44091</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -718,7 +731,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="12">
         <f>SUM(C6:C17)</f>
-        <v>4</v>
+        <v>5.75</v>
       </c>
     </row>
   </sheetData>
@@ -731,8 +744,8 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,8 +887,15 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="6">
+        <v>44090</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
@@ -892,7 +912,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="12">
         <f>SUM(C6:C17)</f>
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1074,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1108,9 +1128,15 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="11"/>
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="6">
+        <v>44091</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
@@ -1161,7 +1187,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="12">
         <f>SUM(C6:C17)</f>
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
     </row>
   </sheetData>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD56B274-F8AC-4971-8725-4F0CE1A9ED5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C416510-1844-4B45-A6F5-91982F959EA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26640" yWindow="-3504" windowWidth="17280" windowHeight="8964" firstSheet="3" activeTab="4" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
+    <workbookView xWindow="26640" yWindow="-3504" windowWidth="17280" windowHeight="8964" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-5101 Web App Dev" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t xml:space="preserve">synchronous meeting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">assignment 1 </t>
   </si>
 </sst>
 </file>
@@ -590,9 +593,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16949051-C290-489F-B889-8E57FD4D2EE2}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,8 +704,15 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="C12" s="11"/>
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="6">
+        <v>44093</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
@@ -731,7 +741,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="12">
         <f>SUM(C6:C17)</f>
-        <v>5.75</v>
+        <v>7.25</v>
       </c>
     </row>
   </sheetData>
@@ -1199,7 +1209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B921473-702E-437D-A9C1-1006BB275F33}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C416510-1844-4B45-A6F5-91982F959EA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585A0F84-0396-4981-A999-DE410084ACEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26640" yWindow="-3504" windowWidth="17280" windowHeight="8964" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
+    <workbookView xWindow="26664" yWindow="-2412" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-5101 Web App Dev" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -115,18 +115,9 @@
     <t xml:space="preserve">learning c# web dev videos </t>
   </si>
   <si>
-    <t>RFP + exercise</t>
-  </si>
-  <si>
-    <t>week #2 meeting + lab</t>
-  </si>
-  <si>
     <t>week 2 video</t>
   </si>
   <si>
-    <t>lecture + lab</t>
-  </si>
-  <si>
     <t>team meeting #1</t>
   </si>
   <si>
@@ -134,6 +125,15 @@
   </si>
   <si>
     <t xml:space="preserve">assignment 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c# videos </t>
+  </si>
+  <si>
+    <t>week 2 videos</t>
+  </si>
+  <si>
+    <t>week 3 videos</t>
   </si>
 </sst>
 </file>
@@ -593,9 +593,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16949051-C290-489F-B889-8E57FD4D2EE2}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -694,7 +694,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11" s="6">
         <v>44091</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" s="6">
         <v>44093</v>
@@ -715,8 +715,15 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="C13" s="11"/>
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="6">
+        <v>44094</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
@@ -741,7 +748,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="12">
         <f>SUM(C6:C17)</f>
-        <v>7.25</v>
+        <v>7.75</v>
       </c>
     </row>
   </sheetData>
@@ -753,9 +760,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A3F135-7494-47F4-8145-13112D03B728}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -887,7 +894,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" s="6">
         <v>44088</v>
@@ -898,7 +905,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" s="6">
         <v>44090</v>
@@ -908,8 +915,15 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="6">
+        <v>44096</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
@@ -922,7 +936,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="12">
         <f>SUM(C6:C17)</f>
-        <v>7.5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -937,7 +951,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,7 +1039,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="6">
         <v>44088</v>
@@ -1084,7 +1098,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1139,7 +1153,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="6">
         <v>44091</v>
@@ -1149,14 +1163,26 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="11"/>
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="6">
+        <v>44094</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="6">
+        <v>44094</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
@@ -1197,7 +1223,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="12">
         <f>SUM(C6:C17)</f>
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
     </row>
   </sheetData>
@@ -1211,7 +1237,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1277,7 +1303,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="6">
         <v>44089</v>
@@ -1288,7 +1314,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="6">
         <v>44090</v>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585A0F84-0396-4981-A999-DE410084ACEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D0EAEE-51B0-4BE3-9CB0-38DF4C3ADDD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26664" yWindow="-2412" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
+    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-5101 Web App Dev" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>week 3 videos</t>
+  </si>
+  <si>
+    <t>write Agenda #2</t>
   </si>
 </sst>
 </file>
@@ -758,11 +761,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A3F135-7494-47F4-8145-13112D03B728}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -926,17 +929,44 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="6">
+        <v>44096</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="12">
+      <c r="B22" s="9"/>
+      <c r="C22" s="12">
         <f>SUM(C6:C17)</f>
-        <v>9</v>
+        <v>9.25</v>
       </c>
     </row>
   </sheetData>
@@ -951,7 +981,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1049,8 +1079,15 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6">
+        <v>44096</v>
+      </c>
+      <c r="C11" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -1084,7 +1121,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="12">
         <f>SUM(C6:C17)</f>
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D0EAEE-51B0-4BE3-9CB0-38DF4C3ADDD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFF49CD-6C4C-4DC8-A27F-34C7F365D693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
+    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-5101 Web App Dev" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>write Agenda #2</t>
+  </si>
+  <si>
+    <t>asynchronous videos</t>
   </si>
 </sst>
 </file>
@@ -238,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -280,6 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,7 +602,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,8 +733,15 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="C14" s="11"/>
+      <c r="A14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="15">
+        <v>44096</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
@@ -751,7 +762,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="12">
         <f>SUM(C6:C17)</f>
-        <v>7.75</v>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A3F135-7494-47F4-8145-13112D03B728}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
@@ -1272,9 +1283,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B921473-702E-437D-A9C1-1006BB275F33}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1361,8 +1372,15 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="6">
+        <v>44097</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
@@ -1399,7 +1417,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="12">
         <f>SUM(C6:C17)</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFF49CD-6C4C-4DC8-A27F-34C7F365D693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBCE7E1-1D7D-4BA1-9300-3114872CAC03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
+    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-5101 Web App Dev" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>asynchronous videos</t>
+  </si>
+  <si>
+    <t>proposal exercise</t>
+  </si>
+  <si>
+    <t>blog site</t>
   </si>
 </sst>
 </file>
@@ -241,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -284,6 +290,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,7 +611,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -736,7 +745,7 @@
       <c r="A14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="16">
         <v>44096</v>
       </c>
       <c r="C14" s="11">
@@ -744,8 +753,15 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="6">
+        <v>44098</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
@@ -762,7 +778,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="12">
         <f>SUM(C6:C17)</f>
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
     </row>
   </sheetData>
@@ -776,7 +792,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -951,9 +967,15 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="6">
+        <v>44098</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
@@ -976,8 +998,8 @@
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="12">
-        <f>SUM(C6:C17)</f>
-        <v>9.25</v>
+        <f>SUM(C6:C18)</f>
+        <v>10.25</v>
       </c>
     </row>
   </sheetData>
@@ -1144,9 +1166,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A244C2DC-A5D4-4DF3-AC14-7E0B496C633C}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1233,12 +1255,26 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="6">
+        <v>44098</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="6">
+        <v>44100</v>
+      </c>
+      <c r="C11" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -1271,7 +1307,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="12">
         <f>SUM(C6:C17)</f>
-        <v>5.75</v>
+        <v>9.25</v>
       </c>
     </row>
   </sheetData>
@@ -1283,9 +1319,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B921473-702E-437D-A9C1-1006BB275F33}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,8 +1419,15 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6">
+        <v>44097</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -1417,7 +1460,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="12">
         <f>SUM(C6:C17)</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
     </row>
   </sheetData>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBCE7E1-1D7D-4BA1-9300-3114872CAC03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D7329B-11AC-4A8C-BB11-86ABAADB701C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
+    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-5101 Web App Dev" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>blog site</t>
+  </si>
+  <si>
+    <t>assignment 2</t>
   </si>
 </sst>
 </file>
@@ -1012,9 +1015,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB5661E-54D1-4489-841A-784827EAFCA3}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1123,8 +1126,15 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="C12" s="11"/>
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="6">
+        <v>44101</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
@@ -1154,7 +1164,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="12">
         <f>SUM(C6:C17)</f>
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A244C2DC-A5D4-4DF3-AC14-7E0B496C633C}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D7329B-11AC-4A8C-BB11-86ABAADB701C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBB24A3-C4D9-471E-AA0C-61D7D1B145CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
+    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-5101 Web App Dev" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -793,9 +793,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A3F135-7494-47F4-8145-13112D03B728}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -981,9 +981,15 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="6">
+        <v>44103</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
@@ -1001,8 +1007,8 @@
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="12">
-        <f>SUM(C6:C18)</f>
-        <v>10.25</v>
+        <f>SUM(C6:C19)</f>
+        <v>11.5</v>
       </c>
     </row>
   </sheetData>
@@ -1015,7 +1021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB5661E-54D1-4489-841A-784827EAFCA3}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBB24A3-C4D9-471E-AA0C-61D7D1B145CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CE9335-E18F-4B3B-8398-1F144237BC1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
+    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-5101 Web App Dev" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>assignment 2</t>
+  </si>
+  <si>
+    <t>team meeting #3</t>
+  </si>
+  <si>
+    <t>team meeting #2</t>
   </si>
 </sst>
 </file>
@@ -610,11 +616,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16949051-C290-489F-B889-8E57FD4D2EE2}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,21 +773,46 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="6">
+        <v>44105</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="6">
+        <v>44108</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="6">
+        <v>44108</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="12">
-        <f>SUM(C6:C17)</f>
-        <v>9.75</v>
+      <c r="B19" s="9"/>
+      <c r="C19" s="12">
+        <f>SUM(C6:C18)</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -791,11 +822,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A3F135-7494-47F4-8145-13112D03B728}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -971,44 +1002,61 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B18" s="6">
-        <v>44098</v>
+        <v>44097</v>
       </c>
       <c r="C18" s="11">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="6">
+        <v>44098</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B20" s="6">
         <v>44103</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C20" s="11">
         <v>1.25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="11"/>
-    </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="6">
+        <v>44104</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="12">
-        <f>SUM(C6:C19)</f>
-        <v>11.5</v>
+      <c r="B23" s="9"/>
+      <c r="C23" s="12">
+        <f>SUM(C6:C21)</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1023,7 +1071,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,7 +1162,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="6">
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="C10" s="11">
         <v>1.25</v>
@@ -1143,8 +1191,15 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="C13" s="11"/>
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="6">
+        <v>44103</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
@@ -1170,7 +1225,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="12">
         <f>SUM(C6:C17)</f>
-        <v>6.75</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1184,7 +1239,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1293,8 +1348,15 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="C12" s="11"/>
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="6">
+        <v>44105</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
@@ -1323,7 +1385,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="12">
         <f>SUM(C6:C17)</f>
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
     </row>
   </sheetData>
@@ -1337,7 +1399,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="F12:G12"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1446,8 +1508,15 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="C12" s="11"/>
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="6">
+        <v>44104</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
@@ -1476,7 +1545,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="12">
         <f>SUM(C6:C17)</f>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CE9335-E18F-4B3B-8398-1F144237BC1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01169AAD-A79F-47C3-82A3-4648CDCDDE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
+    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-5101 Web App Dev" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>team meeting #2</t>
+  </si>
+  <si>
+    <t>library array assignment</t>
   </si>
 </sst>
 </file>
@@ -618,7 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16949051-C290-489F-B889-8E57FD4D2EE2}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
@@ -1071,7 +1074,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1202,8 +1205,15 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="C14" s="11"/>
+      <c r="A14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="6">
+        <v>44109</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
@@ -1225,7 +1235,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="12">
         <f>SUM(C6:C17)</f>
-        <v>8</v>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
@@ -1397,9 +1407,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B921473-702E-437D-A9C1-1006BB275F33}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01169AAD-A79F-47C3-82A3-4648CDCDDE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D4FB2F-4D48-4334-9509-E86FD9A95AB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>library array assignment</t>
+  </si>
+  <si>
+    <t>photoshop videos</t>
+  </si>
+  <si>
+    <t>lecture notes</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1255,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1369,8 +1375,15 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="C13" s="11"/>
+      <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="6">
+        <v>44109</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
@@ -1395,7 +1408,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="12">
         <f>SUM(C6:C17)</f>
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1422,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1529,12 +1542,26 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="C13" s="11"/>
+      <c r="A13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="6">
+        <v>44109</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="C14" s="11"/>
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="6">
+        <v>44109</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
@@ -1555,7 +1582,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="12">
         <f>SUM(C6:C17)</f>
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D4FB2F-4D48-4334-9509-E86FD9A95AB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92599F65-7B6C-421C-B499-0D18F61503E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
+    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-5101 Web App Dev" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -831,11 +831,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A3F135-7494-47F4-8145-13112D03B728}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,18 +1054,39 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="6">
+        <v>44110</v>
+      </c>
+      <c r="C22" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="12">
-        <f>SUM(C6:C21)</f>
-        <v>12</v>
+      <c r="B26" s="9"/>
+      <c r="C26" s="12">
+        <f>SUM(C6:C22)</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1078,9 +1099,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB5661E-54D1-4489-841A-784827EAFCA3}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1222,9 +1243,15 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="6">
+        <v>44110</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
@@ -1241,7 +1268,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="12">
         <f>SUM(C6:C17)</f>
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
     </row>
   </sheetData>
@@ -1420,7 +1447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B921473-702E-437D-A9C1-1006BB275F33}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92599F65-7B6C-421C-B499-0D18F61503E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32CF6ED-7B13-48E7-9635-DC4B6B7D9D75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
+    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-5101 Web App Dev" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>lecture notes</t>
+  </si>
+  <si>
+    <t>blog site final submission</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB5661E-54D1-4489-841A-784827EAFCA3}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
@@ -1280,9 +1283,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A244C2DC-A5D4-4DF3-AC14-7E0B496C633C}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1413,8 +1416,15 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="C14" s="11"/>
+      <c r="A14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="6">
+        <v>44110</v>
+      </c>
+      <c r="C14" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
@@ -1435,7 +1445,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="12">
         <f>SUM(C6:C17)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32CF6ED-7B13-48E7-9635-DC4B6B7D9D75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F28284-A863-45C1-B1A4-36DC4EC39797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
+    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-5101 Web App Dev" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -630,9 +630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16949051-C290-489F-B889-8E57FD4D2EE2}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1283,7 +1283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A244C2DC-A5D4-4DF3-AC14-7E0B496C633C}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R12" sqref="R12"/>
     </sheetView>
@@ -1459,7 +1459,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1601,8 +1601,15 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="6">
+        <v>44111</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2.75</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
@@ -1619,7 +1626,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="12">
         <f>SUM(C6:C17)</f>
-        <v>9.5</v>
+        <v>12.25</v>
       </c>
     </row>
   </sheetData>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F28284-A863-45C1-B1A4-36DC4EC39797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAEB1AA-43EF-4AD8-A73C-1049DBFCBBD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
+    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-5101 Web App Dev" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>blog site final submission</t>
+  </si>
+  <si>
+    <t>team meeting #4</t>
   </si>
 </sst>
 </file>
@@ -630,7 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16949051-C290-489F-B889-8E57FD4D2EE2}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
@@ -836,9 +839,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A3F135-7494-47F4-8145-13112D03B728}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1068,9 +1071,15 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="6">
+        <v>44111</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
@@ -1088,8 +1097,8 @@
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="12">
-        <f>SUM(C6:C22)</f>
-        <v>14</v>
+        <f>SUM(C6:C23)</f>
+        <v>14.5</v>
       </c>
     </row>
   </sheetData>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAEB1AA-43EF-4AD8-A73C-1049DBFCBBD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244558CD-CA95-4C0F-A491-2558EDA1F3F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
+    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-5101 Web App Dev" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -145,9 +145,6 @@
     <t>proposal exercise</t>
   </si>
   <si>
-    <t>blog site</t>
-  </si>
-  <si>
     <t>assignment 2</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>team meeting #4</t>
+  </si>
+  <si>
+    <t>blog site milestone</t>
   </si>
 </sst>
 </file>
@@ -811,7 +811,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="6">
         <v>44108</v>
@@ -839,7 +839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A3F135-7494-47F4-8145-13112D03B728}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="6">
         <v>44097</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="6">
         <v>44104</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="6">
         <v>44111</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="6">
         <v>44101</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="6">
         <v>44109</v>
@@ -1292,9 +1292,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A244C2DC-A5D4-4DF3-AC14-7E0B496C633C}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R12" sqref="R12"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B11" s="6">
         <v>44100</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="6">
         <v>44109</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="6">
         <v>44110</v>
@@ -1436,12 +1436,26 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="6">
+        <v>44111</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="6">
+        <v>44111</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
@@ -1454,7 +1468,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="12">
         <f>SUM(C6:C17)</f>
-        <v>13</v>
+        <v>17.25</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1603,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="6">
         <v>44109</v>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244558CD-CA95-4C0F-A491-2558EDA1F3F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467C7F93-2BC9-4E76-A643-56082633DD0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
+    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-5101 Web App Dev" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>blog site milestone</t>
+  </si>
+  <si>
+    <t>draft proposal</t>
   </si>
 </sst>
 </file>
@@ -839,9 +842,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A3F135-7494-47F4-8145-13112D03B728}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1082,9 +1085,15 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="6">
+        <v>44113</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
@@ -1097,8 +1106,8 @@
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="12">
-        <f>SUM(C6:C23)</f>
-        <v>14.5</v>
+        <f>SUM(C6:C24)</f>
+        <v>15.5</v>
       </c>
     </row>
   </sheetData>
@@ -1292,9 +1301,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A244C2DC-A5D4-4DF3-AC14-7E0B496C633C}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1458,8 +1467,15 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="6">
+        <v>44112</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
@@ -1468,7 +1484,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="12">
         <f>SUM(C6:C17)</f>
-        <v>17.25</v>
+        <v>19.5</v>
       </c>
     </row>
   </sheetData>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467C7F93-2BC9-4E76-A643-56082633DD0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F751BF5-B8A5-46B3-AD46-FB0B30962C45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
+    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{A988AAF8-0237-4DAB-904A-4F11E5BEBE92}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-5101 Web App Dev" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -842,9 +842,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A3F135-7494-47F4-8145-13112D03B728}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1096,9 +1096,15 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="6">
+        <v>44114</v>
+      </c>
+      <c r="C25" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
@@ -1106,8 +1112,8 @@
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="12">
-        <f>SUM(C6:C24)</f>
-        <v>15.5</v>
+        <f>SUM(C6:C25)</f>
+        <v>17.5</v>
       </c>
     </row>
   </sheetData>
@@ -1496,9 +1502,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B921473-702E-437D-A9C1-1006BB275F33}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
